--- a/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EE1F63-2BD4-42AA-BB57-84DC9C35C45F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63409C2-E5F9-42B1-A97B-AA0DE7746CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CE028F42-3814-4B49-8840-BEE1DD8D4159}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8594B0C-D3C3-4867-9ECB-9821E01E568F}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="499">
   <si>
     <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
   </si>
@@ -80,1465 +80,1456 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,15%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,41%</t>
+    <t>2,47%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>53,1%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>55,78%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
     <t>1,88%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>68,83%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>41,98%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>56,58%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>50,04%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>55,09%</t>
+  </si>
+  <si>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>31,6%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>30,24%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
   </si>
   <si>
     <t>1,62%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>49,68%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>48,54%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
   </si>
   <si>
     <t>1,52%</t>
   </si>
   <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>74,39%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
-  </si>
-  <si>
-    <t>76,66%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,14%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>43,2%</t>
-  </si>
-  <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>57,31%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>50,15%</t>
-  </si>
-  <si>
-    <t>70,68%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>51,63%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>53,65%</t>
-  </si>
-  <si>
-    <t>70,1%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>50,78%</t>
-  </si>
-  <si>
-    <t>66,26%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>49,44%</t>
-  </si>
-  <si>
-    <t>59,35%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,65%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>69,11%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>18,56%</t>
-  </si>
-  <si>
-    <t>23,76%</t>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
+    <t>8,26%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
+    <t>15,02%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>57,47%</t>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>57,48%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,47%</t>
-  </si>
-  <si>
-    <t>66,77%</t>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>60,41%</t>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>60,27%</t>
   </si>
   <si>
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1953,7 +1944,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAD5C619-91A2-4D0D-8B23-2EC59B1919D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C03B1D-6D99-4D76-B050-3863CA10E43E}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2215,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2230,13 +2221,13 @@
         <v>5256</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2245,13 +2236,13 @@
         <v>1770</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>34</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2260,13 +2251,13 @@
         <v>7026</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2272,13 @@
         <v>3478</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2311,13 +2302,13 @@
         <v>3478</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2323,13 @@
         <v>7882</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2347,13 +2338,13 @@
         <v>3596</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2362,10 +2353,10 @@
         <v>11478</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>52</v>
@@ -2874,13 +2865,13 @@
         <v>3186</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2895,13 +2886,13 @@
         <v>929</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2925,13 +2916,13 @@
         <v>929</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2937,13 @@
         <v>5992</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2961,13 +2952,13 @@
         <v>985</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2976,13 +2967,13 @@
         <v>6977</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2997,13 +2988,13 @@
         <v>27374</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3012,13 +3003,13 @@
         <v>4082</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3027,13 +3018,13 @@
         <v>31456</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3048,13 +3039,13 @@
         <v>75730</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>58</v>
@@ -3063,13 +3054,13 @@
         <v>60895</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>130</v>
@@ -3078,13 +3069,13 @@
         <v>136625</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3099,13 +3090,13 @@
         <v>8374</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3114,13 +3105,13 @@
         <v>6213</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3129,13 +3120,13 @@
         <v>14587</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3191,7 +3182,7 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -3209,7 +3200,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3224,7 +3215,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3260,7 +3251,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3275,7 +3266,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3311,7 +3302,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3320,13 +3311,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3335,13 +3326,13 @@
         <v>902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3362,7 +3353,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3377,7 +3368,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3407,13 +3398,13 @@
         <v>922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3428,7 +3419,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3437,13 +3428,13 @@
         <v>922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,13 +3449,13 @@
         <v>2102</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3473,13 +3464,13 @@
         <v>2067</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3488,13 +3479,13 @@
         <v>4169</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3509,13 +3500,13 @@
         <v>2763</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3524,13 +3515,13 @@
         <v>997</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>41</v>
+        <v>157</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3539,13 +3530,13 @@
         <v>3760</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3560,13 +3551,13 @@
         <v>23497</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3575,13 +3566,13 @@
         <v>2688</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -3590,13 +3581,13 @@
         <v>26186</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,13 +3602,13 @@
         <v>51649</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -3626,13 +3617,13 @@
         <v>41188</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M34" s="7">
         <v>96</v>
@@ -3641,13 +3632,13 @@
         <v>92837</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3662,13 +3653,13 @@
         <v>1904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3677,13 +3668,13 @@
         <v>12016</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -3692,13 +3683,13 @@
         <v>13920</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q35" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3745,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3772,37 +3763,37 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="7">
+        <v>0</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="7">
+        <v>0</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="H37" s="7">
-        <v>0</v>
-      </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M37" s="7">
-        <v>0</v>
-      </c>
-      <c r="N37" s="7">
-        <v>0</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3823,37 +3814,37 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H38" s="7">
+        <v>0</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="7">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="H38" s="7">
-        <v>0</v>
-      </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M38" s="7">
-        <v>0</v>
-      </c>
-      <c r="N38" s="7">
-        <v>0</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,37 +3865,37 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H39" s="7">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L39" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="7">
+        <v>0</v>
+      </c>
+      <c r="O39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="H39" s="7">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M39" s="7">
-        <v>0</v>
-      </c>
-      <c r="N39" s="7">
-        <v>0</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,37 +3916,37 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H40" s="7">
+        <v>0</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L40" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="7">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0</v>
-      </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L40" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="M40" s="7">
-        <v>0</v>
-      </c>
-      <c r="N40" s="7">
-        <v>0</v>
-      </c>
-      <c r="O40" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,13 +3961,13 @@
         <v>1830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3991,7 +3982,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -4000,13 +3991,13 @@
         <v>1830</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4021,13 +4012,13 @@
         <v>2037</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>197</v>
+        <v>81</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4036,13 +4027,13 @@
         <v>1008</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -4051,13 +4042,13 @@
         <v>3045</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>18</v>
+        <v>197</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4072,13 +4063,13 @@
         <v>7600</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -4087,13 +4078,13 @@
         <v>1536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -4102,13 +4093,13 @@
         <v>9136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>209</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4114,13 @@
         <v>21568</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -4138,13 +4129,13 @@
         <v>9609</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M44" s="7">
         <v>31</v>
@@ -4153,13 +4144,13 @@
         <v>31177</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4174,13 +4165,13 @@
         <v>56060</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H45" s="7">
         <v>24</v>
@@ -4189,13 +4180,13 @@
         <v>26627</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="M45" s="7">
         <v>75</v>
@@ -4204,13 +4195,13 @@
         <v>82687</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4225,13 +4216,13 @@
         <v>23123</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4240,13 +4231,13 @@
         <v>10587</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="M46" s="7">
         <v>29</v>
@@ -4255,13 +4246,13 @@
         <v>33710</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4317,7 +4308,7 @@
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -4335,7 +4326,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4350,7 +4341,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4386,7 +4377,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4401,7 +4392,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4437,7 +4428,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4452,7 +4443,7 @@
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4461,13 +4452,13 @@
         <v>827</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4482,13 +4473,13 @@
         <v>2897</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>116</v>
+        <v>241</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4497,13 +4488,13 @@
         <v>868</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4512,13 +4503,13 @@
         <v>3765</v>
       </c>
       <c r="O51" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P51" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q51" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P51" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q51" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4539,7 +4530,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4548,13 +4539,13 @@
         <v>960</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4563,13 +4554,13 @@
         <v>960</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,14 +4575,14 @@
         <v>1914</v>
       </c>
       <c r="E53" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="F53" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>254</v>
-      </c>
       <c r="H53" s="7">
         <v>0</v>
       </c>
@@ -4605,7 +4596,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4614,13 +4605,13 @@
         <v>1914</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4635,13 +4626,13 @@
         <v>957</v>
       </c>
       <c r="E54" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -4650,13 +4641,13 @@
         <v>2545</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>201</v>
+        <v>257</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4665,13 +4656,13 @@
         <v>3502</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="P54" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q54" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="Q54" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4686,13 +4677,13 @@
         <v>12449</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F55" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="G55" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4701,13 +4692,13 @@
         <v>6038</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="K55" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="K55" s="7" t="s">
+      <c r="L55" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
@@ -4716,13 +4707,13 @@
         <v>18487</v>
       </c>
       <c r="O55" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P55" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q55" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="P55" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q55" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4737,13 +4728,13 @@
         <v>26131</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H56" s="7">
         <v>27</v>
@@ -4752,13 +4743,13 @@
         <v>26585</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="M56" s="7">
         <v>53</v>
@@ -4767,13 +4758,13 @@
         <v>52716</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4788,13 +4779,13 @@
         <v>15835</v>
       </c>
       <c r="E57" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="F57" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="G57" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="H57" s="7">
         <v>13</v>
@@ -4803,13 +4794,13 @@
         <v>12399</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>284</v>
+        <v>58</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="M57" s="7">
         <v>28</v>
@@ -4818,13 +4809,13 @@
         <v>28234</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4880,7 +4871,7 @@
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4898,7 +4889,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4913,7 +4904,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4928,7 +4919,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4949,7 +4940,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4964,7 +4955,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4979,7 +4970,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4994,13 +4985,13 @@
         <v>904</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5015,7 +5006,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -5024,13 +5015,13 @@
         <v>904</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5051,7 +5042,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5066,7 +5057,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5081,7 +5072,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5102,7 +5093,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -5117,7 +5108,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -5132,7 +5123,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5138,13 @@
         <v>3858</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5168,7 +5159,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M64" s="7">
         <v>4</v>
@@ -5177,13 +5168,13 @@
         <v>3858</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>241</v>
+        <v>99</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5189,13 @@
         <v>1796</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -5213,13 +5204,13 @@
         <v>921</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -5228,13 +5219,13 @@
         <v>2717</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5240,13 @@
         <v>18819</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H66" s="7">
         <v>8</v>
@@ -5264,13 +5255,13 @@
         <v>7519</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="M66" s="7">
         <v>27</v>
@@ -5279,13 +5270,13 @@
         <v>26339</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5300,13 +5291,13 @@
         <v>50418</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="H67" s="7">
         <v>33</v>
@@ -5315,13 +5306,13 @@
         <v>33128</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="M67" s="7">
         <v>81</v>
@@ -5330,13 +5321,13 @@
         <v>83547</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5342,13 @@
         <v>6837</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>239</v>
+        <v>325</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H68" s="7">
         <v>9</v>
@@ -5366,13 +5357,13 @@
         <v>9480</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M68" s="7">
         <v>16</v>
@@ -5381,13 +5372,13 @@
         <v>16317</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>38</v>
+        <v>302</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5443,7 +5434,7 @@
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B70" s="5">
         <v>9</v>
@@ -5461,7 +5452,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5476,7 +5467,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -5491,7 +5482,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5497,13 @@
         <v>3339</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>57</v>
+        <v>335</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5521,13 +5512,13 @@
         <v>1027</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
@@ -5536,13 +5527,13 @@
         <v>4367</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>341</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,7 +5554,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5578,7 +5569,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5593,7 +5584,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,13 +5599,13 @@
         <v>3167</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5629,7 +5620,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5638,13 +5629,13 @@
         <v>3167</v>
       </c>
       <c r="O73" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P73" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q73" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="P73" s="7" t="s">
-        <v>345</v>
-      </c>
-      <c r="Q73" s="7" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5659,13 +5650,13 @@
         <v>1055</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5680,7 +5671,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5689,13 +5680,13 @@
         <v>1055</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>349</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5710,13 +5701,13 @@
         <v>2111</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
@@ -5725,13 +5716,13 @@
         <v>4956</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="M75" s="7">
         <v>7</v>
@@ -5740,13 +5731,13 @@
         <v>7067</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5761,13 +5752,13 @@
         <v>8690</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>240</v>
+        <v>354</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -5776,13 +5767,13 @@
         <v>5199</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="M76" s="7">
         <v>13</v>
@@ -5791,13 +5782,13 @@
         <v>13889</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5812,13 +5803,13 @@
         <v>46803</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H77" s="7">
         <v>19</v>
@@ -5827,13 +5818,13 @@
         <v>20248</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="M77" s="7">
         <v>61</v>
@@ -5842,13 +5833,13 @@
         <v>67051</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>234</v>
+        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5863,13 +5854,13 @@
         <v>116687</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="H78" s="7">
         <v>99</v>
@@ -5878,13 +5869,13 @@
         <v>101078</v>
       </c>
       <c r="J78" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="M78" s="7">
         <v>199</v>
@@ -5893,13 +5884,13 @@
         <v>217766</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,13 +5905,13 @@
         <v>45222</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>382</v>
+        <v>169</v>
       </c>
       <c r="H79" s="7">
         <v>38</v>
@@ -5929,13 +5920,13 @@
         <v>39918</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M79" s="7">
         <v>76</v>
@@ -5944,13 +5935,13 @@
         <v>85140</v>
       </c>
       <c r="O79" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P79" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q79" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="P79" s="7" t="s">
-        <v>386</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,7 +5997,7 @@
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B81" s="5">
         <v>9</v>
@@ -6024,7 +6015,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>389</v>
+        <v>39</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6039,7 +6030,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -6054,7 +6045,7 @@
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6069,13 +6060,13 @@
         <v>921</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -6090,7 +6081,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -6099,13 +6090,13 @@
         <v>921</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>359</v>
+        <v>392</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6120,13 +6111,13 @@
         <v>1264</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>395</v>
+        <v>42</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -6141,7 +6132,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -6150,13 +6141,13 @@
         <v>1264</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>256</v>
+        <v>395</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6171,13 +6162,13 @@
         <v>1974</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>154</v>
+        <v>396</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6192,7 +6183,7 @@
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -6201,13 +6192,13 @@
         <v>1974</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>399</v>
+        <v>243</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6222,13 +6213,13 @@
         <v>921</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -6243,7 +6234,7 @@
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -6252,13 +6243,13 @@
         <v>921</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6273,13 +6264,13 @@
         <v>4989</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>402</v>
+        <v>344</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>260</v>
+        <v>400</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>403</v>
+        <v>325</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6288,13 +6279,13 @@
         <v>976</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>160</v>
+        <v>401</v>
       </c>
       <c r="M86" s="7">
         <v>6</v>
@@ -6303,13 +6294,13 @@
         <v>5966</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>404</v>
+        <v>57</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>405</v>
+        <v>139</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6315,13 @@
         <v>5480</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>348</v>
+        <v>402</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
@@ -6339,13 +6330,13 @@
         <v>2060</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>166</v>
+        <v>30</v>
       </c>
       <c r="M87" s="7">
         <v>7</v>
@@ -6354,13 +6345,13 @@
         <v>7539</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6375,13 +6366,13 @@
         <v>42039</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>284</v>
+        <v>409</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H88" s="7">
         <v>10</v>
@@ -6390,13 +6381,13 @@
         <v>10904</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="M88" s="7">
         <v>50</v>
@@ -6405,13 +6396,13 @@
         <v>52943</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6426,13 +6417,13 @@
         <v>140973</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="H89" s="7">
         <v>108</v>
@@ -6441,13 +6432,13 @@
         <v>115364</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="M89" s="7">
         <v>243</v>
@@ -6456,13 +6447,13 @@
         <v>256337</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6477,13 +6468,13 @@
         <v>34562</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H90" s="7">
         <v>32</v>
@@ -6492,13 +6483,13 @@
         <v>34752</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="M90" s="7">
         <v>65</v>
@@ -6507,13 +6498,13 @@
         <v>69315</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6587,7 +6578,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -6596,13 +6587,13 @@
         <v>903</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="M92" s="7">
         <v>1</v>
@@ -6611,13 +6602,13 @@
         <v>903</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6632,13 +6623,13 @@
         <v>10112</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>347</v>
+        <v>15</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>354</v>
+        <v>41</v>
       </c>
       <c r="H93" s="7">
         <v>4</v>
@@ -6647,13 +6638,13 @@
         <v>3929</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="M93" s="7">
         <v>13</v>
@@ -6662,13 +6653,13 @@
         <v>14042</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>343</v>
+        <v>29</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>349</v>
+        <v>441</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6683,13 +6674,13 @@
         <v>3103</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>344</v>
+        <v>246</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
@@ -6698,13 +6689,13 @@
         <v>1728</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>447</v>
+        <v>347</v>
       </c>
       <c r="M94" s="7">
         <v>5</v>
@@ -6713,13 +6704,13 @@
         <v>4831</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>339</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6734,13 +6725,13 @@
         <v>13294</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H95" s="7">
         <v>3</v>
@@ -6749,13 +6740,13 @@
         <v>2638</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>336</v>
+        <v>450</v>
       </c>
       <c r="M95" s="7">
         <v>16</v>
@@ -6764,13 +6755,13 @@
         <v>15932</v>
       </c>
       <c r="O95" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="P95" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q95" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P95" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="Q95" s="7" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6785,13 +6776,13 @@
         <v>11393</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>43</v>
+        <v>438</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -6800,13 +6791,13 @@
         <v>960</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>450</v>
+        <v>95</v>
       </c>
       <c r="M96" s="7">
         <v>12</v>
@@ -6815,13 +6806,13 @@
         <v>12352</v>
       </c>
       <c r="O96" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P96" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q96" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P96" s="7" t="s">
-        <v>458</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,13 +6827,13 @@
         <v>25822</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>91</v>
+        <v>459</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>355</v>
+        <v>35</v>
       </c>
       <c r="H97" s="7">
         <v>13</v>
@@ -6851,13 +6842,13 @@
         <v>12604</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K97" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L97" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M97" s="7">
         <v>38</v>
@@ -6866,13 +6857,13 @@
         <v>38426</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>465</v>
+        <v>355</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6878,13 @@
         <v>42458</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H98" s="7">
         <v>18</v>
@@ -6902,13 +6893,13 @@
         <v>18090</v>
       </c>
       <c r="J98" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="K98" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>468</v>
-      </c>
-      <c r="K98" s="7" t="s">
-        <v>469</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>470</v>
       </c>
       <c r="M98" s="7">
         <v>59</v>
@@ -6917,13 +6908,13 @@
         <v>60548</v>
       </c>
       <c r="O98" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="P98" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q98" s="7" t="s">
         <v>471</v>
-      </c>
-      <c r="P98" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="Q98" s="7" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6929,13 @@
         <v>218375</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>474</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>475</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>476</v>
       </c>
       <c r="H99" s="7">
         <v>69</v>
@@ -6953,13 +6944,13 @@
         <v>71272</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>479</v>
+        <v>55</v>
       </c>
       <c r="M99" s="7">
         <v>275</v>
@@ -6968,13 +6959,13 @@
         <v>289647</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +6980,13 @@
         <v>566613</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="H100" s="7">
         <v>420</v>
@@ -7004,13 +6995,13 @@
         <v>434288</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="M100" s="7">
         <v>951</v>
@@ -7019,13 +7010,13 @@
         <v>1000901</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7031,13 @@
         <v>149765</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H101" s="7">
         <v>134</v>
@@ -7055,13 +7046,13 @@
         <v>142086</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="M101" s="7">
         <v>270</v>
@@ -7070,13 +7061,13 @@
         <v>291851</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,7 +7123,7 @@
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B63409C2-E5F9-42B1-A97B-AA0DE7746CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49459DD-4699-4A42-B369-5D462E5B622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F8594B0C-D3C3-4867-9ECB-9821E01E568F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFA9C614-0E65-48AE-A5FF-94023B01AAA4}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="499">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2015 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="497">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -80,46 +80,46 @@
     <t>1,3%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>7,38%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,47%</t>
+    <t>2,81%</t>
   </si>
   <si>
     <t>4,83%</t>
   </si>
   <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
   </si>
   <si>
     <t>4,18%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>4,59%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>3,8%</t>
+    <t>4,39%</t>
   </si>
   <si>
     <t>2,82%</t>
@@ -128,1300 +128,1300 @@
     <t>0,49%</t>
   </si>
   <si>
+    <t>2,5%</t>
+  </si>
+  <si>
     <t>4,33%</t>
   </si>
   <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>21,29%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>42,43%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>36,72%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>62,29%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,04%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>56,38%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>56,5%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>31,31%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>52,94%</t>
+  </si>
+  <si>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>25,99%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>49,1%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
+  </si>
+  <si>
+    <t>70,25%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>66,12%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>59,79%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
   </si>
   <si>
     <t>0,54%</t>
   </si>
   <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
   </si>
   <si>
     <t>3,03%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,81%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,67%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>48,84%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>53,1%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>6,84%</t>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>38,79%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>55,78%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>55,89%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>40,53%</t>
-  </si>
-  <si>
-    <t>61,14%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>68,83%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>56,58%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>38,93%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>59,48%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>2,94%</t>
   </si>
   <si>
     <t>2,22%</t>
@@ -1430,76 +1430,73 @@
     <t>4,08%</t>
   </si>
   <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
+    <t>4,2%</t>
   </si>
   <si>
     <t>3,5%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
+    <t>2,68%</t>
   </si>
   <si>
     <t>20,98%</t>
   </si>
   <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>8,26%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>16,75%</t>
   </si>
   <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>57,57%</t>
   </si>
   <si>
     <t>63,08%</t>
   </si>
   <si>
-    <t>59,0%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
   </si>
   <si>
     <t>57,87%</t>
   </si>
   <si>
-    <t>55,22%</t>
+    <t>55,45%</t>
   </si>
   <si>
     <t>60,27%</t>
@@ -1508,28 +1505,25 @@
     <t>14,39%</t>
   </si>
   <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>12,45%</t>
   </si>
   <si>
     <t>20,64%</t>
   </si>
   <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
   </si>
   <si>
     <t>16,88%</t>
   </si>
   <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1944,7 +1938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08C03B1D-6D99-4D76-B050-3863CA10E43E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA571CFF-0FE8-4AF2-95B7-0997DB1B228E}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2206,7 +2200,7 @@
         <v>10</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,13 +2215,13 @@
         <v>5256</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2236,13 +2230,13 @@
         <v>1770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2251,13 +2245,13 @@
         <v>7026</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2272,13 +2266,13 @@
         <v>3478</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2302,13 +2296,13 @@
         <v>3478</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,13 +2317,13 @@
         <v>7882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2338,13 +2332,13 @@
         <v>3596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2353,13 +2347,13 @@
         <v>11478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2368,13 @@
         <v>9179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2389,13 +2383,13 @@
         <v>3847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2404,13 +2398,13 @@
         <v>13027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2419,13 @@
         <v>25826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2440,13 +2434,13 @@
         <v>10184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -2455,13 +2449,13 @@
         <v>36010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2470,13 @@
         <v>48964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2491,13 +2485,13 @@
         <v>29422</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="M12" s="7">
         <v>74</v>
@@ -2506,13 +2500,13 @@
         <v>78386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2527,13 +2521,13 @@
         <v>13908</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -2542,13 +2536,13 @@
         <v>16719</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M13" s="7">
         <v>28</v>
@@ -2557,13 +2551,13 @@
         <v>30628</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2572,13 @@
         <v>121280</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>67</v>
@@ -2593,13 +2587,13 @@
         <v>69343</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M14" s="7">
         <v>178</v>
@@ -2608,18 +2602,18 @@
         <v>190623</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -2637,7 +2631,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2652,7 +2646,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2667,7 +2661,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2682,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2703,7 +2697,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2718,7 +2712,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,7 +2733,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2754,7 +2748,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2769,7 +2763,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2790,7 +2784,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2805,7 +2799,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2820,7 +2814,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,13 +2829,13 @@
         <v>3186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2856,7 +2850,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2865,13 +2859,13 @@
         <v>3186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2880,13 @@
         <v>929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>61</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2907,7 +2901,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2916,13 +2910,13 @@
         <v>929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2937,13 +2931,13 @@
         <v>5992</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2952,13 +2946,13 @@
         <v>985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2967,13 +2961,13 @@
         <v>6977</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>54</v>
+        <v>109</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2988,13 +2982,13 @@
         <v>27374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -3003,13 +2997,13 @@
         <v>4082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3018,13 +3012,13 @@
         <v>31456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3039,13 +3033,13 @@
         <v>75730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H23" s="7">
         <v>58</v>
@@ -3054,13 +3048,13 @@
         <v>60895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M23" s="7">
         <v>130</v>
@@ -3069,13 +3063,13 @@
         <v>136625</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3090,13 +3084,13 @@
         <v>8374</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -3105,13 +3099,13 @@
         <v>6213</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M24" s="7">
         <v>14</v>
@@ -3120,13 +3114,13 @@
         <v>14587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,13 +3135,13 @@
         <v>121585</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H25" s="7">
         <v>69</v>
@@ -3156,13 +3150,13 @@
         <v>72175</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>184</v>
@@ -3171,18 +3165,18 @@
         <v>193760</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -3200,7 +3194,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3215,7 +3209,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3251,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3266,7 +3260,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3302,7 +3296,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3311,13 +3305,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3326,13 +3320,13 @@
         <v>902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3353,7 +3347,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3368,7 +3362,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3398,13 +3392,13 @@
         <v>922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3419,7 +3413,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3428,13 +3422,13 @@
         <v>922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>94</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3449,13 +3443,13 @@
         <v>2102</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3464,13 +3458,13 @@
         <v>2067</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3479,13 +3473,13 @@
         <v>4169</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3500,13 +3494,13 @@
         <v>2763</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>129</v>
+        <v>55</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3515,13 +3509,13 @@
         <v>997</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3530,13 +3524,13 @@
         <v>3760</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3545,13 @@
         <v>23497</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3566,13 +3560,13 @@
         <v>2688</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -3581,13 +3575,13 @@
         <v>26186</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3596,13 @@
         <v>51649</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -3617,13 +3611,13 @@
         <v>41188</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M34" s="7">
         <v>96</v>
@@ -3632,13 +3626,13 @@
         <v>92837</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3647,13 @@
         <v>1904</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H35" s="7">
         <v>12</v>
@@ -3668,13 +3662,13 @@
         <v>12016</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -3683,13 +3677,13 @@
         <v>13920</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>186</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,13 +3698,13 @@
         <v>82838</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H36" s="7">
         <v>61</v>
@@ -3719,13 +3713,13 @@
         <v>59858</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M36" s="7">
         <v>146</v>
@@ -3734,18 +3728,18 @@
         <v>142696</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3763,7 +3757,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3778,7 +3772,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3793,7 +3787,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3814,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3829,7 +3823,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3844,7 +3838,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3859,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3880,7 +3874,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3895,7 +3889,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3910,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3931,7 +3925,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3946,7 +3940,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3961,13 +3955,13 @@
         <v>1830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3982,7 +3976,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3991,13 +3985,13 @@
         <v>1830</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4012,13 +4006,13 @@
         <v>2037</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>81</v>
+        <v>196</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4027,13 +4021,13 @@
         <v>1008</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -4042,13 +4036,13 @@
         <v>3045</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4057,13 @@
         <v>7600</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -4078,13 +4072,13 @@
         <v>1536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -4093,13 +4087,13 @@
         <v>9136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>19</v>
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4108,13 @@
         <v>21568</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -4129,13 +4123,13 @@
         <v>9609</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="M44" s="7">
         <v>31</v>
@@ -4144,13 +4138,13 @@
         <v>31177</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4159,13 @@
         <v>56060</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H45" s="7">
         <v>24</v>
@@ -4180,13 +4174,13 @@
         <v>26627</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M45" s="7">
         <v>75</v>
@@ -4195,13 +4189,13 @@
         <v>82687</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4210,13 @@
         <v>23123</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H46" s="7">
         <v>9</v>
@@ -4231,13 +4225,13 @@
         <v>10587</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M46" s="7">
         <v>29</v>
@@ -4246,13 +4240,13 @@
         <v>33710</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4261,13 @@
         <v>112217</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H47" s="7">
         <v>45</v>
@@ -4282,13 +4276,13 @@
         <v>49368</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M47" s="7">
         <v>149</v>
@@ -4297,18 +4291,18 @@
         <v>161585</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -4326,7 +4320,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4341,7 +4335,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4377,7 +4371,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4392,7 +4386,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4428,7 +4422,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4437,13 +4431,13 @@
         <v>827</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4452,13 +4446,13 @@
         <v>827</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4467,13 @@
         <v>2897</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4488,13 +4482,13 @@
         <v>868</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4503,13 +4497,13 @@
         <v>3765</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4530,7 +4524,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4539,13 +4533,13 @@
         <v>960</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4554,13 +4548,13 @@
         <v>960</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4575,13 +4569,13 @@
         <v>1914</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4596,7 +4590,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4605,13 +4599,13 @@
         <v>1914</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4620,13 @@
         <v>957</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -4641,13 +4635,13 @@
         <v>2545</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>258</v>
+        <v>192</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4656,13 +4650,13 @@
         <v>3502</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>143</v>
+        <v>261</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>39</v>
+        <v>262</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4671,13 @@
         <v>12449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4692,13 +4686,13 @@
         <v>6038</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
@@ -4707,13 +4701,13 @@
         <v>18487</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4722,13 @@
         <v>26131</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H56" s="7">
         <v>27</v>
@@ -4743,13 +4737,13 @@
         <v>26585</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="M56" s="7">
         <v>53</v>
@@ -4758,13 +4752,13 @@
         <v>52716</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4779,13 +4773,13 @@
         <v>15835</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H57" s="7">
         <v>13</v>
@@ -4794,13 +4788,13 @@
         <v>12399</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>58</v>
+        <v>286</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M57" s="7">
         <v>28</v>
@@ -4809,13 +4803,13 @@
         <v>28234</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4830,13 +4824,13 @@
         <v>60183</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H58" s="7">
         <v>52</v>
@@ -4845,13 +4839,13 @@
         <v>50222</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M58" s="7">
         <v>111</v>
@@ -4860,18 +4854,18 @@
         <v>110405</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4889,7 +4883,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4904,7 +4898,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4919,7 +4913,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4955,7 +4949,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4970,7 +4964,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4985,13 +4979,13 @@
         <v>904</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5006,7 +5000,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -5015,13 +5009,13 @@
         <v>904</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5042,7 +5036,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5057,7 +5051,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5072,7 +5066,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,7 +5087,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -5108,7 +5102,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -5123,7 +5117,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5138,13 +5132,13 @@
         <v>3858</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5159,7 +5153,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M64" s="7">
         <v>4</v>
@@ -5168,13 +5162,13 @@
         <v>3858</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5189,13 +5183,13 @@
         <v>1796</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -5204,13 +5198,13 @@
         <v>921</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -5219,13 +5213,13 @@
         <v>2717</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5240,13 +5234,13 @@
         <v>18819</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="H66" s="7">
         <v>8</v>
@@ -5255,13 +5249,13 @@
         <v>7519</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="M66" s="7">
         <v>27</v>
@@ -5270,13 +5264,13 @@
         <v>26339</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>313</v>
+        <v>70</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5291,13 +5285,13 @@
         <v>50418</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="H67" s="7">
         <v>33</v>
@@ -5306,13 +5300,13 @@
         <v>33128</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="M67" s="7">
         <v>81</v>
@@ -5321,13 +5315,13 @@
         <v>83547</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5342,13 +5336,13 @@
         <v>6837</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="H68" s="7">
         <v>9</v>
@@ -5357,13 +5351,13 @@
         <v>9480</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>328</v>
+        <v>73</v>
       </c>
       <c r="M68" s="7">
         <v>16</v>
@@ -5372,13 +5366,13 @@
         <v>16317</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>302</v>
+        <v>333</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,13 +5387,13 @@
         <v>82633</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H69" s="7">
         <v>51</v>
@@ -5408,13 +5402,13 @@
         <v>51048</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M69" s="7">
         <v>132</v>
@@ -5423,18 +5417,18 @@
         <v>133682</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B70" s="5">
         <v>9</v>
@@ -5452,7 +5446,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5467,7 +5461,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -5482,7 +5476,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,13 +5491,13 @@
         <v>3339</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="F71" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>336</v>
+        <v>298</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5512,13 +5506,13 @@
         <v>1027</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>337</v>
+        <v>238</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
@@ -5527,13 +5521,13 @@
         <v>4367</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>92</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,7 +5548,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5569,7 +5563,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5584,7 +5578,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,13 +5593,13 @@
         <v>3167</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5620,7 +5614,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5629,13 +5623,13 @@
         <v>3167</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5650,13 +5644,13 @@
         <v>1055</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5671,7 +5665,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5680,13 +5674,13 @@
         <v>1055</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5701,13 +5695,13 @@
         <v>2111</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>348</v>
+        <v>131</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
@@ -5716,13 +5710,13 @@
         <v>4956</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>333</v>
+        <v>146</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M75" s="7">
         <v>7</v>
@@ -5731,13 +5725,13 @@
         <v>7067</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5752,13 +5746,13 @@
         <v>8690</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -5767,13 +5761,13 @@
         <v>5199</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>356</v>
+        <v>337</v>
       </c>
       <c r="L76" s="7" t="s">
-        <v>357</v>
+        <v>305</v>
       </c>
       <c r="M76" s="7">
         <v>13</v>
@@ -5782,13 +5776,13 @@
         <v>13889</v>
       </c>
       <c r="O76" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="P76" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="P76" s="7" t="s">
-        <v>359</v>
-      </c>
       <c r="Q76" s="7" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5803,13 +5797,13 @@
         <v>46803</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="H77" s="7">
         <v>19</v>
@@ -5818,13 +5812,13 @@
         <v>20248</v>
       </c>
       <c r="J77" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L77" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="K77" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="L77" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="M77" s="7">
         <v>61</v>
@@ -5833,13 +5827,13 @@
         <v>67051</v>
       </c>
       <c r="O77" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P77" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q77" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="P77" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q77" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5854,13 +5848,13 @@
         <v>116687</v>
       </c>
       <c r="E78" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F78" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G78" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H78" s="7">
         <v>99</v>
@@ -5869,13 +5863,13 @@
         <v>101078</v>
       </c>
       <c r="J78" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K78" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="L78" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="K78" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="L78" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M78" s="7">
         <v>199</v>
@@ -5884,13 +5878,13 @@
         <v>217766</v>
       </c>
       <c r="O78" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P78" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="Q78" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P78" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q78" s="7" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5905,13 +5899,13 @@
         <v>45222</v>
       </c>
       <c r="E79" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F79" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>378</v>
-      </c>
-      <c r="F79" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H79" s="7">
         <v>38</v>
@@ -5920,13 +5914,13 @@
         <v>39918</v>
       </c>
       <c r="J79" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K79" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="K79" s="7" t="s">
+      <c r="L79" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L79" s="7" t="s">
-        <v>382</v>
       </c>
       <c r="M79" s="7">
         <v>76</v>
@@ -5935,13 +5929,13 @@
         <v>85140</v>
       </c>
       <c r="O79" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="P79" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="P79" s="7" t="s">
+      <c r="Q79" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="Q79" s="7" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5956,13 +5950,13 @@
         <v>227074</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H80" s="7">
         <v>167</v>
@@ -5971,13 +5965,13 @@
         <v>172427</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M80" s="7">
         <v>364</v>
@@ -5986,18 +5980,18 @@
         <v>399501</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B81" s="5">
         <v>9</v>
@@ -6015,7 +6009,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6030,22 +6024,22 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="M81" s="7">
+        <v>0</v>
+      </c>
+      <c r="N81" s="7">
+        <v>0</v>
+      </c>
+      <c r="O81" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P81" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q81" s="7" t="s">
         <v>387</v>
-      </c>
-      <c r="M81" s="7">
-        <v>0</v>
-      </c>
-      <c r="N81" s="7">
-        <v>0</v>
-      </c>
-      <c r="O81" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="P81" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q81" s="7" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6060,14 +6054,14 @@
         <v>921</v>
       </c>
       <c r="E82" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F82" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F82" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G82" s="7" t="s">
-        <v>390</v>
-      </c>
       <c r="H82" s="7">
         <v>0</v>
       </c>
@@ -6081,7 +6075,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -6090,13 +6084,13 @@
         <v>921</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>392</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6111,13 +6105,13 @@
         <v>1264</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>42</v>
+        <v>391</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>393</v>
+        <v>93</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -6132,7 +6126,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -6141,13 +6135,13 @@
         <v>1264</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>395</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6162,13 +6156,13 @@
         <v>1974</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6183,7 +6177,7 @@
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -6192,13 +6186,13 @@
         <v>1974</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6213,14 +6207,14 @@
         <v>921</v>
       </c>
       <c r="E85" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="F85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>389</v>
       </c>
-      <c r="F85" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G85" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="H85" s="7">
         <v>0</v>
       </c>
@@ -6234,7 +6228,7 @@
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -6243,13 +6237,13 @@
         <v>921</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6264,13 +6258,13 @@
         <v>4989</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>344</v>
+        <v>24</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>325</v>
+        <v>398</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6279,13 +6273,13 @@
         <v>976</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="M86" s="7">
         <v>6</v>
@@ -6294,13 +6288,13 @@
         <v>5966</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>139</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,13 +6309,13 @@
         <v>5480</v>
       </c>
       <c r="E87" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F87" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F87" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="G87" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
@@ -6330,13 +6324,13 @@
         <v>2060</v>
       </c>
       <c r="J87" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K87" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K87" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L87" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="M87" s="7">
         <v>7</v>
@@ -6384,10 +6378,10 @@
         <v>411</v>
       </c>
       <c r="K88" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L88" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="L88" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M88" s="7">
         <v>50</v>
@@ -6396,13 +6390,13 @@
         <v>52943</v>
       </c>
       <c r="O88" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P88" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q88" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P88" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q88" s="7" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6417,13 +6411,13 @@
         <v>140973</v>
       </c>
       <c r="E89" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>417</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H89" s="7">
         <v>108</v>
@@ -6432,13 +6426,13 @@
         <v>115364</v>
       </c>
       <c r="J89" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K89" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="L89" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K89" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>422</v>
       </c>
       <c r="M89" s="7">
         <v>243</v>
@@ -6447,13 +6441,13 @@
         <v>256337</v>
       </c>
       <c r="O89" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P89" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="Q89" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="P89" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="Q89" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6468,13 +6462,13 @@
         <v>34562</v>
       </c>
       <c r="E90" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="F90" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G90" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H90" s="7">
         <v>32</v>
@@ -6483,13 +6477,13 @@
         <v>34752</v>
       </c>
       <c r="J90" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="K90" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L90" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="K90" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="L90" s="7" t="s">
-        <v>431</v>
       </c>
       <c r="M90" s="7">
         <v>65</v>
@@ -6498,13 +6492,13 @@
         <v>69315</v>
       </c>
       <c r="O90" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P90" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q90" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="P90" s="7" t="s">
-        <v>433</v>
-      </c>
-      <c r="Q90" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,13 +6513,13 @@
         <v>233123</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H91" s="7">
         <v>153</v>
@@ -6534,13 +6528,13 @@
         <v>164057</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M91" s="7">
         <v>376</v>
@@ -6549,13 +6543,13 @@
         <v>397180</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6578,7 +6572,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -6587,13 +6581,13 @@
         <v>903</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>146</v>
+        <v>338</v>
       </c>
       <c r="M92" s="7">
         <v>1</v>
@@ -6602,13 +6596,13 @@
         <v>903</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6623,13 +6617,13 @@
         <v>10112</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>15</v>
+        <v>436</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>41</v>
+        <v>437</v>
       </c>
       <c r="H93" s="7">
         <v>4</v>
@@ -6644,7 +6638,7 @@
         <v>439</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>335</v>
+        <v>440</v>
       </c>
       <c r="M93" s="7">
         <v>13</v>
@@ -6653,13 +6647,13 @@
         <v>14042</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>29</v>
+        <v>344</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6674,13 +6668,13 @@
         <v>3103</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
@@ -6689,13 +6683,13 @@
         <v>1728</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="M94" s="7">
         <v>5</v>
@@ -6704,13 +6698,13 @@
         <v>4831</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>304</v>
+        <v>200</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6725,13 +6719,13 @@
         <v>13294</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="H95" s="7">
         <v>3</v>
@@ -6740,13 +6734,13 @@
         <v>2638</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M95" s="7">
         <v>16</v>
@@ -6755,13 +6749,13 @@
         <v>15932</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>452</v>
+        <v>43</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>453</v>
+        <v>294</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6770,13 @@
         <v>11393</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F96" s="7" t="s">
         <v>438</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -6791,13 +6785,13 @@
         <v>960</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>95</v>
+        <v>148</v>
       </c>
       <c r="M96" s="7">
         <v>12</v>
@@ -6806,13 +6800,13 @@
         <v>12352</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>152</v>
+        <v>455</v>
       </c>
       <c r="P96" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q96" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="Q96" s="7" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6821,13 @@
         <v>25822</v>
       </c>
       <c r="E97" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="F97" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="G97" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="H97" s="7">
         <v>13</v>
@@ -6842,7 +6836,7 @@
         <v>12604</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>188</v>
+        <v>18</v>
       </c>
       <c r="K97" s="7" t="s">
         <v>460</v>
@@ -6860,10 +6854,10 @@
         <v>462</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>459</v>
+        <v>32</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,10 +6890,10 @@
         <v>466</v>
       </c>
       <c r="K98" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L98" s="7" t="s">
         <v>467</v>
-      </c>
-      <c r="L98" s="7" t="s">
-        <v>468</v>
       </c>
       <c r="M98" s="7">
         <v>59</v>
@@ -6908,13 +6902,13 @@
         <v>60548</v>
       </c>
       <c r="O98" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="P98" s="7" t="s">
         <v>469</v>
       </c>
-      <c r="P98" s="7" t="s">
-        <v>470</v>
-      </c>
       <c r="Q98" s="7" t="s">
-        <v>471</v>
+        <v>167</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6923,13 @@
         <v>218375</v>
       </c>
       <c r="E99" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="F99" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="F99" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>474</v>
       </c>
       <c r="H99" s="7">
         <v>69</v>
@@ -6944,13 +6938,13 @@
         <v>71272</v>
       </c>
       <c r="J99" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="K99" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="L99" s="7" t="s">
         <v>475</v>
-      </c>
-      <c r="K99" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="L99" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M99" s="7">
         <v>275</v>
@@ -6959,13 +6953,13 @@
         <v>289647</v>
       </c>
       <c r="O99" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="P99" s="7" t="s">
         <v>477</v>
       </c>
-      <c r="P99" s="7" t="s">
+      <c r="Q99" s="7" t="s">
         <v>478</v>
-      </c>
-      <c r="Q99" s="7" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6980,13 +6974,13 @@
         <v>566613</v>
       </c>
       <c r="E100" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="F100" s="7" t="s">
         <v>480</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="G100" s="7" t="s">
         <v>481</v>
-      </c>
-      <c r="G100" s="7" t="s">
-        <v>482</v>
       </c>
       <c r="H100" s="7">
         <v>420</v>
@@ -6995,13 +6989,13 @@
         <v>434288</v>
       </c>
       <c r="J100" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="K100" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="K100" s="7" t="s">
+      <c r="L100" s="7" t="s">
         <v>484</v>
-      </c>
-      <c r="L100" s="7" t="s">
-        <v>485</v>
       </c>
       <c r="M100" s="7">
         <v>951</v>
@@ -7010,13 +7004,13 @@
         <v>1000901</v>
       </c>
       <c r="O100" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="P100" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="P100" s="7" t="s">
+      <c r="Q100" s="7" t="s">
         <v>487</v>
-      </c>
-      <c r="Q100" s="7" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7031,13 +7025,13 @@
         <v>149765</v>
       </c>
       <c r="E101" s="7" t="s">
+        <v>488</v>
+      </c>
+      <c r="F101" s="7" t="s">
         <v>489</v>
       </c>
-      <c r="F101" s="7" t="s">
-        <v>490</v>
-      </c>
       <c r="G101" s="7" t="s">
-        <v>491</v>
+        <v>364</v>
       </c>
       <c r="H101" s="7">
         <v>134</v>
@@ -7046,13 +7040,13 @@
         <v>142086</v>
       </c>
       <c r="J101" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="K101" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="L101" s="7" t="s">
         <v>492</v>
-      </c>
-      <c r="K101" s="7" t="s">
-        <v>493</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>494</v>
       </c>
       <c r="M101" s="7">
         <v>270</v>
@@ -7061,13 +7055,13 @@
         <v>291851</v>
       </c>
       <c r="O101" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="P101" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="Q101" s="7" t="s">
         <v>495</v>
-      </c>
-      <c r="P101" s="7" t="s">
-        <v>496</v>
-      </c>
-      <c r="Q101" s="7" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7082,13 +7076,13 @@
         <v>1040933</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H102" s="7">
         <v>665</v>
@@ -7097,13 +7091,13 @@
         <v>688499</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M102" s="7">
         <v>1640</v>
@@ -7112,18 +7106,18 @@
         <v>1729432</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P34E2H-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49459DD-4699-4A42-B369-5D462E5B622A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{548BF16F-5C4D-42CE-AB92-9857BED6BBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFA9C614-0E65-48AE-A5FF-94023B01AAA4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6C41FE03-9871-430F-938C-0A03DDF40FB9}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="497">
-  <si>
-    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 24,97%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="402">
+  <si>
+    <t>Población según el número de horas por día a los que se dedica a realizar alguna actividad  físicas moderada en 2016 (Tasa respuesta: 98,93%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,1456 +74,1171 @@
     <t>0%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>62,3%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>76,02%</t>
+  </si>
+  <si>
+    <t>85,34%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>7,38%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
+  </si>
+  <si>
+    <t>73,43%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>85,69%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>72,66%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>74,33%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>71,38%</t>
+  </si>
+  <si>
+    <t>67,39%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,47%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
   </si>
   <si>
     <t>0,47%</t>
   </si>
   <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
   </si>
   <si>
     <t>1,32%</t>
   </si>
   <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>33,63%</t>
-  </si>
-  <si>
-    <t>48,44%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>62,29%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>74,36%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>77,91%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
+  </si>
+  <si>
+    <t>81,49%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>0,01%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
   </si>
   <si>
     <t>1,11%</t>
   </si>
   <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>72,41%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>56,38%</t>
-  </si>
-  <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>56,5%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>31,31%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
   </si>
   <si>
     <t>1,13%</t>
   </si>
   <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
+    <t>6,51%</t>
   </si>
   <si>
     <t>5,65%</t>
   </si>
   <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>33,92%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>49,96%</t>
-  </si>
-  <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>68,98%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>20,61%</t>
-  </si>
-  <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
   </si>
   <si>
     <t>13,57%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>52,94%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>49,1%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>50,42%</t>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>75,0%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
   </si>
   <si>
     <t>78,08%</t>
   </si>
   <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
-  </si>
-  <si>
-    <t>70,25%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>58,1%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>50,87%</t>
-  </si>
-  <si>
-    <t>66,12%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
-  </si>
-  <si>
-    <t>59,79%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>70,32%</t>
-  </si>
-  <si>
-    <t>62,32%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>54,43%</t>
-  </si>
-  <si>
-    <t>51,38%</t>
-  </si>
-  <si>
-    <t>57,57%</t>
-  </si>
-  <si>
-    <t>63,08%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
+    <t>80,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1938,7 +1653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA571CFF-0FE8-4AF2-95B7-0997DB1B228E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4BC4230-B439-4D2A-9B2E-FD17145B90F2}">
   <dimension ref="A1:Q103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2116,10 +1831,10 @@
         <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>18</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -2128,13 +1843,13 @@
         <v>2902</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -2143,13 +1858,13 @@
         <v>8754</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2164,28 +1879,28 @@
         <v>934</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="7">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>27</v>
-      </c>
-      <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
@@ -2194,13 +1909,13 @@
         <v>934</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="P6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,13 +1930,13 @@
         <v>5256</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -2230,13 +1945,13 @@
         <v>1770</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -2245,13 +1960,13 @@
         <v>7026</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,14 +1981,14 @@
         <v>3478</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
@@ -2287,7 +2002,7 @@
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M8" s="7">
         <v>3</v>
@@ -2296,13 +2011,13 @@
         <v>3478</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2032,13 @@
         <v>7882</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -2332,13 +2047,13 @@
         <v>3596</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
         <v>11</v>
@@ -2347,13 +2062,13 @@
         <v>11478</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,13 +2083,13 @@
         <v>9179</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -2383,13 +2098,13 @@
         <v>3847</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2398,13 +2113,13 @@
         <v>13027</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2134,13 @@
         <v>25826</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>9</v>
@@ -2434,13 +2149,13 @@
         <v>10184</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>33</v>
@@ -2449,13 +2164,13 @@
         <v>36010</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,13 +2185,13 @@
         <v>48964</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>29</v>
@@ -2485,13 +2200,13 @@
         <v>29422</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>74</v>
@@ -2500,13 +2215,13 @@
         <v>78386</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2515,49 +2230,49 @@
         <v>0</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>160</v>
       </c>
       <c r="D13" s="7">
-        <v>13908</v>
+        <v>177461</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7">
+        <v>216</v>
+      </c>
+      <c r="I13" s="7">
+        <v>226403</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>376</v>
+      </c>
+      <c r="N13" s="7">
+        <v>403865</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="7">
-        <v>15</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16719</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="M13" s="7">
-        <v>28</v>
-      </c>
-      <c r="N13" s="7">
-        <v>30628</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2566,54 +2281,54 @@
         <v>3</v>
       </c>
       <c r="C14" s="7">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="D14" s="7">
-        <v>121280</v>
+        <v>284833</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>268</v>
       </c>
       <c r="I14" s="7">
-        <v>69343</v>
+        <v>279027</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M14" s="7">
-        <v>178</v>
+        <v>526</v>
       </c>
       <c r="N14" s="7">
-        <v>190623</v>
+        <v>563861</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" s="5">
         <v>9</v>
@@ -2631,7 +2346,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -2646,7 +2361,7 @@
         <v>11</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M15" s="7">
         <v>0</v>
@@ -2661,7 +2376,7 @@
         <v>11</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,7 +2397,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2697,7 +2412,7 @@
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2712,7 +2427,7 @@
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,7 +2448,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2748,7 +2463,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -2763,7 +2478,7 @@
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,7 +2499,7 @@
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -2799,7 +2514,7 @@
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -2814,7 +2529,7 @@
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2829,13 +2544,13 @@
         <v>3186</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2850,7 +2565,7 @@
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M19" s="7">
         <v>3</v>
@@ -2859,13 +2574,13 @@
         <v>3186</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,13 +2595,13 @@
         <v>929</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2901,7 +2616,7 @@
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -2910,13 +2625,13 @@
         <v>929</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2931,13 +2646,13 @@
         <v>5992</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -2946,13 +2661,13 @@
         <v>985</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -2961,13 +2676,13 @@
         <v>6977</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2982,13 +2697,13 @@
         <v>27374</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -2997,13 +2712,13 @@
         <v>4082</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>29</v>
@@ -3012,13 +2727,13 @@
         <v>31456</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,13 +2748,13 @@
         <v>75730</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H23" s="7">
         <v>58</v>
@@ -3048,13 +2763,13 @@
         <v>60895</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="M23" s="7">
         <v>130</v>
@@ -3063,13 +2778,13 @@
         <v>136625</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3078,49 +2793,49 @@
         <v>0</v>
       </c>
       <c r="C24" s="7">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="D24" s="7">
-        <v>8374</v>
+        <v>386181</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H24" s="7">
+        <v>418</v>
+      </c>
+      <c r="I24" s="7">
+        <v>453235</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="M24" s="7">
+        <v>783</v>
+      </c>
+      <c r="N24" s="7">
+        <v>839414</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="H24" s="7">
-        <v>6</v>
-      </c>
-      <c r="I24" s="7">
-        <v>6213</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="M24" s="7">
-        <v>14</v>
-      </c>
-      <c r="N24" s="7">
-        <v>14587</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,54 +2844,54 @@
         <v>3</v>
       </c>
       <c r="C25" s="7">
-        <v>115</v>
+        <v>472</v>
       </c>
       <c r="D25" s="7">
-        <v>121585</v>
+        <v>499392</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H25" s="7">
-        <v>69</v>
+        <v>481</v>
       </c>
       <c r="I25" s="7">
-        <v>72175</v>
+        <v>519196</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M25" s="7">
-        <v>184</v>
+        <v>953</v>
       </c>
       <c r="N25" s="7">
-        <v>193760</v>
+        <v>1018587</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B26" s="5">
         <v>9</v>
@@ -3194,7 +2909,7 @@
         <v>11</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3209,7 +2924,7 @@
         <v>11</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -3224,7 +2939,7 @@
         <v>11</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3245,7 +2960,7 @@
         <v>11</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -3260,7 +2975,7 @@
         <v>11</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M27" s="7">
         <v>0</v>
@@ -3275,7 +2990,7 @@
         <v>11</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3011,7 @@
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -3305,13 +3020,13 @@
         <v>902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="M28" s="7">
         <v>1</v>
@@ -3320,13 +3035,13 @@
         <v>902</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>145</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3347,7 +3062,7 @@
         <v>11</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3362,7 +3077,7 @@
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M29" s="7">
         <v>0</v>
@@ -3377,7 +3092,7 @@
         <v>11</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>13</v>
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3107,13 @@
         <v>922</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>147</v>
+        <v>14</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3413,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="M30" s="7">
         <v>1</v>
@@ -3422,13 +3137,13 @@
         <v>922</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3443,13 +3158,13 @@
         <v>2102</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
@@ -3458,13 +3173,13 @@
         <v>2067</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>152</v>
+        <v>40</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="M31" s="7">
         <v>4</v>
@@ -3473,13 +3188,13 @@
         <v>4169</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>154</v>
+        <v>90</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3494,13 +3209,13 @@
         <v>2763</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>55</v>
+        <v>144</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="H32" s="7">
         <v>1</v>
@@ -3509,13 +3224,13 @@
         <v>997</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -3524,13 +3239,13 @@
         <v>3760</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3545,13 +3260,13 @@
         <v>23497</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>164</v>
+        <v>71</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="H33" s="7">
         <v>3</v>
@@ -3560,13 +3275,13 @@
         <v>2688</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>169</v>
+        <v>111</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -3575,13 +3290,13 @@
         <v>26186</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>171</v>
+        <v>36</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -3596,13 +3311,13 @@
         <v>51649</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="H34" s="7">
         <v>42</v>
@@ -3611,13 +3326,13 @@
         <v>41188</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
       <c r="M34" s="7">
         <v>96</v>
@@ -3626,13 +3341,13 @@
         <v>92837</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -3641,49 +3356,49 @@
         <v>0</v>
       </c>
       <c r="C35" s="7">
-        <v>2</v>
+        <v>252</v>
       </c>
       <c r="D35" s="7">
-        <v>1904</v>
+        <v>237631</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>10</v>
+        <v>164</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="H35" s="7">
-        <v>12</v>
+        <v>280</v>
       </c>
       <c r="I35" s="7">
-        <v>12016</v>
+        <v>285726</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="M35" s="7">
-        <v>14</v>
+        <v>532</v>
       </c>
       <c r="N35" s="7">
-        <v>13920</v>
+        <v>523357</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,54 +3407,54 @@
         <v>3</v>
       </c>
       <c r="C36" s="7">
-        <v>85</v>
+        <v>335</v>
       </c>
       <c r="D36" s="7">
-        <v>82838</v>
+        <v>318565</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H36" s="7">
-        <v>61</v>
+        <v>329</v>
       </c>
       <c r="I36" s="7">
-        <v>59858</v>
+        <v>333568</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M36" s="7">
-        <v>146</v>
+        <v>664</v>
       </c>
       <c r="N36" s="7">
-        <v>142696</v>
+        <v>652133</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="B37" s="5">
         <v>9</v>
@@ -3757,7 +3472,7 @@
         <v>11</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H37" s="7">
         <v>0</v>
@@ -3772,7 +3487,7 @@
         <v>11</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M37" s="7">
         <v>0</v>
@@ -3787,7 +3502,7 @@
         <v>11</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,7 +3523,7 @@
         <v>11</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H38" s="7">
         <v>0</v>
@@ -3823,7 +3538,7 @@
         <v>11</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M38" s="7">
         <v>0</v>
@@ -3838,7 +3553,7 @@
         <v>11</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3574,7 @@
         <v>11</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H39" s="7">
         <v>0</v>
@@ -3874,7 +3589,7 @@
         <v>11</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M39" s="7">
         <v>0</v>
@@ -3889,7 +3604,7 @@
         <v>11</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,7 +3625,7 @@
         <v>11</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="H40" s="7">
         <v>0</v>
@@ -3925,7 +3640,7 @@
         <v>11</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M40" s="7">
         <v>0</v>
@@ -3940,7 +3655,7 @@
         <v>11</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>191</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3955,13 +3670,13 @@
         <v>1830</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="H41" s="7">
         <v>0</v>
@@ -3976,7 +3691,7 @@
         <v>11</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="M41" s="7">
         <v>2</v>
@@ -3985,13 +3700,13 @@
         <v>1830</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="P41" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4006,13 +3721,13 @@
         <v>2037</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>42</v>
+        <v>177</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="H42" s="7">
         <v>1</v>
@@ -4021,13 +3736,13 @@
         <v>1008</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>197</v>
+        <v>151</v>
       </c>
       <c r="K42" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M42" s="7">
         <v>3</v>
@@ -4036,13 +3751,13 @@
         <v>3045</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>199</v>
+        <v>88</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4057,13 +3772,13 @@
         <v>7600</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="H43" s="7">
         <v>1</v>
@@ -4072,13 +3787,13 @@
         <v>1536</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>205</v>
+        <v>88</v>
       </c>
       <c r="K43" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="M43" s="7">
         <v>9</v>
@@ -4087,13 +3802,13 @@
         <v>9136</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4108,13 +3823,13 @@
         <v>21568</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="H44" s="7">
         <v>10</v>
@@ -4123,13 +3838,13 @@
         <v>9609</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>214</v>
+        <v>34</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="M44" s="7">
         <v>31</v>
@@ -4138,13 +3853,13 @@
         <v>31177</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4159,13 +3874,13 @@
         <v>56060</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>220</v>
+        <v>116</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="H45" s="7">
         <v>24</v>
@@ -4174,13 +3889,13 @@
         <v>26627</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="M45" s="7">
         <v>75</v>
@@ -4189,13 +3904,13 @@
         <v>82687</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>227</v>
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4204,49 +3919,49 @@
         <v>0</v>
       </c>
       <c r="C46" s="7">
-        <v>20</v>
+        <v>269</v>
       </c>
       <c r="D46" s="7">
-        <v>23123</v>
+        <v>279582</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="H46" s="7">
-        <v>9</v>
+        <v>321</v>
       </c>
       <c r="I46" s="7">
-        <v>10587</v>
+        <v>347469</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="M46" s="7">
-        <v>29</v>
+        <v>590</v>
       </c>
       <c r="N46" s="7">
-        <v>33710</v>
+        <v>627051</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4255,54 +3970,54 @@
         <v>3</v>
       </c>
       <c r="C47" s="7">
-        <v>104</v>
+        <v>353</v>
       </c>
       <c r="D47" s="7">
-        <v>112217</v>
+        <v>368677</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H47" s="7">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="I47" s="7">
-        <v>49368</v>
+        <v>386250</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M47" s="7">
-        <v>149</v>
+        <v>710</v>
       </c>
       <c r="N47" s="7">
-        <v>161585</v>
+        <v>754926</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="B48" s="5">
         <v>9</v>
@@ -4320,7 +4035,7 @@
         <v>11</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H48" s="7">
         <v>0</v>
@@ -4335,7 +4050,7 @@
         <v>11</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M48" s="7">
         <v>0</v>
@@ -4350,7 +4065,7 @@
         <v>11</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,7 +4086,7 @@
         <v>11</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H49" s="7">
         <v>0</v>
@@ -4386,7 +4101,7 @@
         <v>11</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M49" s="7">
         <v>0</v>
@@ -4401,7 +4116,7 @@
         <v>11</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>12</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,7 +4137,7 @@
         <v>11</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H50" s="7">
         <v>1</v>
@@ -4431,13 +4146,13 @@
         <v>827</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="K50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="M50" s="7">
         <v>1</v>
@@ -4446,13 +4161,13 @@
         <v>827</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="P50" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4467,13 +4182,13 @@
         <v>2897</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="H51" s="7">
         <v>1</v>
@@ -4482,13 +4197,13 @@
         <v>868</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>245</v>
+        <v>88</v>
       </c>
       <c r="K51" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>246</v>
+        <v>55</v>
       </c>
       <c r="M51" s="7">
         <v>4</v>
@@ -4497,13 +4212,13 @@
         <v>3765</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>248</v>
+        <v>223</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>249</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,7 +4239,7 @@
         <v>11</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H52" s="7">
         <v>1</v>
@@ -4533,13 +4248,13 @@
         <v>960</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="K52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="M52" s="7">
         <v>1</v>
@@ -4548,13 +4263,13 @@
         <v>960</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="P52" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -4569,13 +4284,13 @@
         <v>1914</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="H53" s="7">
         <v>0</v>
@@ -4590,7 +4305,7 @@
         <v>11</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="M53" s="7">
         <v>2</v>
@@ -4599,13 +4314,13 @@
         <v>1914</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="P53" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -4620,13 +4335,13 @@
         <v>957</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>258</v>
+        <v>140</v>
       </c>
       <c r="H54" s="7">
         <v>3</v>
@@ -4635,13 +4350,13 @@
         <v>2545</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="M54" s="7">
         <v>4</v>
@@ -4650,13 +4365,13 @@
         <v>3502</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -4671,13 +4386,13 @@
         <v>12449</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>266</v>
+        <v>236</v>
       </c>
       <c r="H55" s="7">
         <v>6</v>
@@ -4686,13 +4401,13 @@
         <v>6038</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>269</v>
+        <v>239</v>
       </c>
       <c r="M55" s="7">
         <v>18</v>
@@ -4701,13 +4416,13 @@
         <v>18487</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>271</v>
+        <v>241</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>272</v>
+        <v>242</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -4722,13 +4437,13 @@
         <v>26131</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>273</v>
+        <v>243</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>275</v>
+        <v>245</v>
       </c>
       <c r="H56" s="7">
         <v>27</v>
@@ -4737,13 +4452,13 @@
         <v>26585</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>277</v>
+        <v>247</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="M56" s="7">
         <v>53</v>
@@ -4752,13 +4467,13 @@
         <v>52716</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>279</v>
+        <v>249</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -4767,49 +4482,49 @@
         <v>0</v>
       </c>
       <c r="C57" s="7">
-        <v>15</v>
+        <v>168</v>
       </c>
       <c r="D57" s="7">
-        <v>15835</v>
+        <v>166873</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>282</v>
+        <v>252</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="H57" s="7">
-        <v>13</v>
+        <v>184</v>
       </c>
       <c r="I57" s="7">
-        <v>12399</v>
+        <v>180764</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="M57" s="7">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="N57" s="7">
-        <v>28234</v>
+        <v>347637</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
@@ -4818,54 +4533,54 @@
         <v>3</v>
       </c>
       <c r="C58" s="7">
-        <v>59</v>
+        <v>212</v>
       </c>
       <c r="D58" s="7">
-        <v>60183</v>
+        <v>211221</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H58" s="7">
-        <v>52</v>
+        <v>223</v>
       </c>
       <c r="I58" s="7">
-        <v>50222</v>
+        <v>218587</v>
       </c>
       <c r="J58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M58" s="7">
-        <v>111</v>
+        <v>435</v>
       </c>
       <c r="N58" s="7">
-        <v>110405</v>
+        <v>429808</v>
       </c>
       <c r="O58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q58" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="B59" s="5">
         <v>9</v>
@@ -4883,7 +4598,7 @@
         <v>11</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="H59" s="7">
         <v>0</v>
@@ -4898,7 +4613,7 @@
         <v>11</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M59" s="7">
         <v>0</v>
@@ -4913,7 +4628,7 @@
         <v>11</v>
       </c>
       <c r="Q59" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
@@ -4934,7 +4649,7 @@
         <v>11</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="H60" s="7">
         <v>0</v>
@@ -4949,7 +4664,7 @@
         <v>11</v>
       </c>
       <c r="L60" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M60" s="7">
         <v>0</v>
@@ -4964,7 +4679,7 @@
         <v>11</v>
       </c>
       <c r="Q60" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
@@ -4979,13 +4694,13 @@
         <v>904</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="H61" s="7">
         <v>0</v>
@@ -5000,7 +4715,7 @@
         <v>11</v>
       </c>
       <c r="L61" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M61" s="7">
         <v>1</v>
@@ -5009,13 +4724,13 @@
         <v>904</v>
       </c>
       <c r="O61" s="7" t="s">
-        <v>297</v>
+        <v>28</v>
       </c>
       <c r="P61" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q61" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,7 +4751,7 @@
         <v>11</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="H62" s="7">
         <v>0</v>
@@ -5051,7 +4766,7 @@
         <v>11</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M62" s="7">
         <v>0</v>
@@ -5066,7 +4781,7 @@
         <v>11</v>
       </c>
       <c r="Q62" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
@@ -5087,7 +4802,7 @@
         <v>11</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>292</v>
+        <v>12</v>
       </c>
       <c r="H63" s="7">
         <v>0</v>
@@ -5102,7 +4817,7 @@
         <v>11</v>
       </c>
       <c r="L63" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M63" s="7">
         <v>0</v>
@@ -5117,7 +4832,7 @@
         <v>11</v>
       </c>
       <c r="Q63" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
@@ -5132,13 +4847,13 @@
         <v>3858</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>299</v>
+        <v>14</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>300</v>
+        <v>217</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>301</v>
+        <v>266</v>
       </c>
       <c r="H64" s="7">
         <v>0</v>
@@ -5153,7 +4868,7 @@
         <v>11</v>
       </c>
       <c r="L64" s="7" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="M64" s="7">
         <v>4</v>
@@ -5162,13 +4877,13 @@
         <v>3858</v>
       </c>
       <c r="O64" s="7" t="s">
-        <v>302</v>
+        <v>267</v>
       </c>
       <c r="P64" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>303</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +4898,13 @@
         <v>1796</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>305</v>
+        <v>188</v>
       </c>
       <c r="H65" s="7">
         <v>1</v>
@@ -5198,13 +4913,13 @@
         <v>921</v>
       </c>
       <c r="J65" s="7" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="K65" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L65" s="7" t="s">
-        <v>307</v>
+        <v>47</v>
       </c>
       <c r="M65" s="7">
         <v>3</v>
@@ -5213,13 +4928,13 @@
         <v>2717</v>
       </c>
       <c r="O65" s="7" t="s">
-        <v>308</v>
+        <v>269</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>309</v>
+        <v>142</v>
       </c>
       <c r="Q65" s="7" t="s">
-        <v>310</v>
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,13 +4949,13 @@
         <v>18819</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>311</v>
+        <v>270</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="H66" s="7">
         <v>8</v>
@@ -5249,13 +4964,13 @@
         <v>7519</v>
       </c>
       <c r="J66" s="7" t="s">
-        <v>314</v>
+        <v>43</v>
       </c>
       <c r="K66" s="7" t="s">
-        <v>315</v>
+        <v>136</v>
       </c>
       <c r="L66" s="7" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="M66" s="7">
         <v>27</v>
@@ -5264,13 +4979,13 @@
         <v>26339</v>
       </c>
       <c r="O66" s="7" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="P66" s="7" t="s">
-        <v>70</v>
+        <v>275</v>
       </c>
       <c r="Q66" s="7" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
@@ -5282,16 +4997,16 @@
         <v>48</v>
       </c>
       <c r="D67" s="7">
-        <v>50418</v>
+        <v>50419</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="H67" s="7">
         <v>33</v>
@@ -5300,13 +5015,13 @@
         <v>33128</v>
       </c>
       <c r="J67" s="7" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="K67" s="7" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="L67" s="7" t="s">
-        <v>324</v>
+        <v>282</v>
       </c>
       <c r="M67" s="7">
         <v>81</v>
@@ -5315,13 +5030,13 @@
         <v>83547</v>
       </c>
       <c r="O67" s="7" t="s">
-        <v>325</v>
+        <v>283</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>326</v>
+        <v>284</v>
       </c>
       <c r="Q67" s="7" t="s">
-        <v>327</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
@@ -5330,49 +5045,49 @@
         <v>0</v>
       </c>
       <c r="C68" s="7">
-        <v>7</v>
+        <v>184</v>
       </c>
       <c r="D68" s="7">
-        <v>6837</v>
+        <v>186425</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>328</v>
+        <v>286</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>329</v>
+        <v>287</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H68" s="7">
-        <v>9</v>
+        <v>219</v>
       </c>
       <c r="I68" s="7">
-        <v>9480</v>
+        <v>229523</v>
       </c>
       <c r="J68" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="K68" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="L68" s="7" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="M68" s="7">
-        <v>16</v>
+        <v>403</v>
       </c>
       <c r="N68" s="7">
-        <v>16317</v>
+        <v>415948</v>
       </c>
       <c r="O68" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="P68" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="Q68" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
@@ -5381,54 +5096,54 @@
         <v>3</v>
       </c>
       <c r="C69" s="7">
-        <v>81</v>
+        <v>258</v>
       </c>
       <c r="D69" s="7">
-        <v>82633</v>
+        <v>262222</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H69" s="7">
-        <v>51</v>
+        <v>261</v>
       </c>
       <c r="I69" s="7">
-        <v>51048</v>
+        <v>271091</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M69" s="7">
-        <v>132</v>
+        <v>519</v>
       </c>
       <c r="N69" s="7">
-        <v>133682</v>
+        <v>533313</v>
       </c>
       <c r="O69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q69" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B70" s="5">
         <v>9</v>
@@ -5446,7 +5161,7 @@
         <v>11</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="H70" s="7">
         <v>0</v>
@@ -5461,7 +5176,7 @@
         <v>11</v>
       </c>
       <c r="L70" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="M70" s="7">
         <v>0</v>
@@ -5476,7 +5191,7 @@
         <v>11</v>
       </c>
       <c r="Q70" s="7" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
@@ -5491,13 +5206,13 @@
         <v>3339</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>339</v>
+        <v>296</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H71" s="7">
         <v>1</v>
@@ -5506,13 +5221,13 @@
         <v>1027</v>
       </c>
       <c r="J71" s="7" t="s">
-        <v>340</v>
+        <v>142</v>
       </c>
       <c r="K71" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="7" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="M71" s="7">
         <v>4</v>
@@ -5521,13 +5236,13 @@
         <v>4367</v>
       </c>
       <c r="O71" s="7" t="s">
-        <v>295</v>
+        <v>25</v>
       </c>
       <c r="P71" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="Q71" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,7 +5263,7 @@
         <v>11</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>336</v>
+        <v>263</v>
       </c>
       <c r="H72" s="7">
         <v>0</v>
@@ -5563,7 +5278,7 @@
         <v>11</v>
       </c>
       <c r="L72" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="M72" s="7">
         <v>0</v>
@@ -5578,7 +5293,7 @@
         <v>11</v>
       </c>
       <c r="Q72" s="7" t="s">
-        <v>338</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
@@ -5593,13 +5308,13 @@
         <v>3167</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>343</v>
+        <v>174</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>344</v>
+        <v>15</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="H73" s="7">
         <v>0</v>
@@ -5614,7 +5329,7 @@
         <v>11</v>
       </c>
       <c r="L73" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="M73" s="7">
         <v>3</v>
@@ -5623,13 +5338,13 @@
         <v>3167</v>
       </c>
       <c r="O73" s="7" t="s">
-        <v>262</v>
+        <v>176</v>
       </c>
       <c r="P73" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="Q73" s="7" t="s">
-        <v>347</v>
+        <v>90</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,13 +5359,13 @@
         <v>1055</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="H74" s="7">
         <v>0</v>
@@ -5665,7 +5380,7 @@
         <v>11</v>
       </c>
       <c r="L74" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="M74" s="7">
         <v>1</v>
@@ -5674,13 +5389,13 @@
         <v>1055</v>
       </c>
       <c r="O74" s="7" t="s">
-        <v>346</v>
+        <v>299</v>
       </c>
       <c r="P74" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q74" s="7" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
@@ -5695,13 +5410,13 @@
         <v>2111</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>349</v>
+        <v>25</v>
       </c>
       <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>131</v>
+        <v>231</v>
       </c>
       <c r="H75" s="7">
         <v>5</v>
@@ -5710,13 +5425,13 @@
         <v>4956</v>
       </c>
       <c r="J75" s="7" t="s">
-        <v>39</v>
+        <v>138</v>
       </c>
       <c r="K75" s="7" t="s">
-        <v>146</v>
+        <v>302</v>
       </c>
       <c r="L75" s="7" t="s">
-        <v>350</v>
+        <v>303</v>
       </c>
       <c r="M75" s="7">
         <v>7</v>
@@ -5725,13 +5440,13 @@
         <v>7067</v>
       </c>
       <c r="O75" s="7" t="s">
-        <v>351</v>
+        <v>173</v>
       </c>
       <c r="P75" s="7" t="s">
-        <v>155</v>
+        <v>225</v>
       </c>
       <c r="Q75" s="7" t="s">
-        <v>352</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
@@ -5746,13 +5461,13 @@
         <v>8690</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>353</v>
+        <v>219</v>
       </c>
       <c r="F76" s="7" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="G76" s="7" t="s">
-        <v>355</v>
+        <v>241</v>
       </c>
       <c r="H76" s="7">
         <v>5</v>
@@ -5761,10 +5476,10 @@
         <v>5199</v>
       </c>
       <c r="J76" s="7" t="s">
-        <v>356</v>
+        <v>298</v>
       </c>
       <c r="K76" s="7" t="s">
-        <v>337</v>
+        <v>102</v>
       </c>
       <c r="L76" s="7" t="s">
         <v>305</v>
@@ -5776,13 +5491,13 @@
         <v>13889</v>
       </c>
       <c r="O76" s="7" t="s">
-        <v>357</v>
+        <v>306</v>
       </c>
       <c r="P76" s="7" t="s">
-        <v>358</v>
+        <v>174</v>
       </c>
       <c r="Q76" s="7" t="s">
-        <v>193</v>
+        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
@@ -5797,13 +5512,13 @@
         <v>46803</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>228</v>
+        <v>308</v>
       </c>
       <c r="F77" s="7" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>360</v>
+        <v>310</v>
       </c>
       <c r="H77" s="7">
         <v>19</v>
@@ -5812,13 +5527,13 @@
         <v>20248</v>
       </c>
       <c r="J77" s="7" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>362</v>
+        <v>91</v>
       </c>
       <c r="L77" s="7" t="s">
-        <v>363</v>
+        <v>200</v>
       </c>
       <c r="M77" s="7">
         <v>61</v>
@@ -5827,13 +5542,13 @@
         <v>67051</v>
       </c>
       <c r="O77" s="7" t="s">
-        <v>364</v>
+        <v>311</v>
       </c>
       <c r="P77" s="7" t="s">
-        <v>365</v>
+        <v>312</v>
       </c>
       <c r="Q77" s="7" t="s">
-        <v>366</v>
+        <v>313</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,13 +5563,13 @@
         <v>116687</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>367</v>
+        <v>314</v>
       </c>
       <c r="F78" s="7" t="s">
-        <v>368</v>
+        <v>315</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>369</v>
+        <v>316</v>
       </c>
       <c r="H78" s="7">
         <v>99</v>
@@ -5863,13 +5578,13 @@
         <v>101078</v>
       </c>
       <c r="J78" s="7" t="s">
-        <v>370</v>
+        <v>317</v>
       </c>
       <c r="K78" s="7" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="L78" s="7" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="M78" s="7">
         <v>199</v>
@@ -5878,13 +5593,13 @@
         <v>217766</v>
       </c>
       <c r="O78" s="7" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="P78" s="7" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="Q78" s="7" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
@@ -5893,49 +5608,49 @@
         <v>0</v>
       </c>
       <c r="C79" s="7">
-        <v>38</v>
+        <v>402</v>
       </c>
       <c r="D79" s="7">
-        <v>45222</v>
+        <v>453533</v>
       </c>
       <c r="E79" s="7" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="F79" s="7" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
       <c r="H79" s="7">
-        <v>38</v>
+        <v>504</v>
       </c>
       <c r="I79" s="7">
-        <v>39918</v>
+        <v>545855</v>
       </c>
       <c r="J79" s="7" t="s">
-        <v>379</v>
+        <v>326</v>
       </c>
       <c r="K79" s="7" t="s">
-        <v>380</v>
+        <v>327</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>381</v>
+        <v>328</v>
       </c>
       <c r="M79" s="7">
-        <v>76</v>
+        <v>906</v>
       </c>
       <c r="N79" s="7">
-        <v>85140</v>
+        <v>999388</v>
       </c>
       <c r="O79" s="7" t="s">
-        <v>382</v>
+        <v>329</v>
       </c>
       <c r="P79" s="7" t="s">
-        <v>383</v>
+        <v>330</v>
       </c>
       <c r="Q79" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
@@ -5944,54 +5659,54 @@
         <v>3</v>
       </c>
       <c r="C80" s="7">
-        <v>197</v>
+        <v>561</v>
       </c>
       <c r="D80" s="7">
-        <v>227074</v>
+        <v>635385</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H80" s="7">
-        <v>167</v>
+        <v>633</v>
       </c>
       <c r="I80" s="7">
-        <v>172427</v>
+        <v>678364</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M80" s="7">
-        <v>364</v>
+        <v>1194</v>
       </c>
       <c r="N80" s="7">
-        <v>399501</v>
+        <v>1313749</v>
       </c>
       <c r="O80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q80" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>385</v>
+        <v>332</v>
       </c>
       <c r="B81" s="5">
         <v>9</v>
@@ -6009,7 +5724,7 @@
         <v>11</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>40</v>
+        <v>151</v>
       </c>
       <c r="H81" s="7">
         <v>0</v>
@@ -6024,7 +5739,7 @@
         <v>11</v>
       </c>
       <c r="L81" s="7" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M81" s="7">
         <v>0</v>
@@ -6039,7 +5754,7 @@
         <v>11</v>
       </c>
       <c r="Q81" s="7" t="s">
-        <v>387</v>
+        <v>180</v>
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
@@ -6054,13 +5769,13 @@
         <v>921</v>
       </c>
       <c r="E82" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="H82" s="7">
         <v>0</v>
@@ -6075,7 +5790,7 @@
         <v>11</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M82" s="7">
         <v>1</v>
@@ -6084,13 +5799,13 @@
         <v>921</v>
       </c>
       <c r="O82" s="7" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="P82" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q82" s="7" t="s">
-        <v>194</v>
+        <v>336</v>
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
@@ -6105,13 +5820,13 @@
         <v>1264</v>
       </c>
       <c r="E83" s="7" t="s">
-        <v>391</v>
+        <v>15</v>
       </c>
       <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>93</v>
+        <v>16</v>
       </c>
       <c r="H83" s="7">
         <v>0</v>
@@ -6126,7 +5841,7 @@
         <v>11</v>
       </c>
       <c r="L83" s="7" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M83" s="7">
         <v>1</v>
@@ -6135,13 +5850,13 @@
         <v>1264</v>
       </c>
       <c r="O83" s="7" t="s">
-        <v>392</v>
+        <v>299</v>
       </c>
       <c r="P83" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q83" s="7" t="s">
-        <v>110</v>
+        <v>337</v>
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
@@ -6156,13 +5871,13 @@
         <v>1974</v>
       </c>
       <c r="E84" s="7" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>394</v>
+        <v>107</v>
       </c>
       <c r="H84" s="7">
         <v>0</v>
@@ -6177,7 +5892,7 @@
         <v>11</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M84" s="7">
         <v>2</v>
@@ -6186,13 +5901,13 @@
         <v>1974</v>
       </c>
       <c r="O84" s="7" t="s">
-        <v>395</v>
+        <v>333</v>
       </c>
       <c r="P84" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q84" s="7" t="s">
-        <v>389</v>
+        <v>216</v>
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
@@ -6207,13 +5922,13 @@
         <v>921</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>388</v>
+        <v>333</v>
       </c>
       <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>389</v>
+        <v>334</v>
       </c>
       <c r="H85" s="7">
         <v>0</v>
@@ -6228,7 +5943,7 @@
         <v>11</v>
       </c>
       <c r="L85" s="7" t="s">
-        <v>386</v>
+        <v>151</v>
       </c>
       <c r="M85" s="7">
         <v>1</v>
@@ -6237,13 +5952,13 @@
         <v>921</v>
       </c>
       <c r="O85" s="7" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="P85" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q85" s="7" t="s">
-        <v>396</v>
+        <v>134</v>
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,13 +5973,13 @@
         <v>4989</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="F86" s="7" t="s">
-        <v>397</v>
+        <v>338</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>398</v>
+        <v>339</v>
       </c>
       <c r="H86" s="7">
         <v>1</v>
@@ -6273,13 +5988,13 @@
         <v>976</v>
       </c>
       <c r="J86" s="7" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="K86" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L86" s="7" t="s">
-        <v>399</v>
+        <v>187</v>
       </c>
       <c r="M86" s="7">
         <v>6</v>
@@ -6288,13 +6003,13 @@
         <v>5966</v>
       </c>
       <c r="O86" s="7" t="s">
-        <v>37</v>
+        <v>262</v>
       </c>
       <c r="P86" s="7" t="s">
-        <v>387</v>
+        <v>41</v>
       </c>
       <c r="Q86" s="7" t="s">
-        <v>205</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
@@ -6309,13 +6024,13 @@
         <v>5480</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="F87" s="7" t="s">
-        <v>401</v>
+        <v>176</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="H87" s="7">
         <v>2</v>
@@ -6324,13 +6039,13 @@
         <v>2060</v>
       </c>
       <c r="J87" s="7" t="s">
-        <v>403</v>
+        <v>338</v>
       </c>
       <c r="K87" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L87" s="7" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="M87" s="7">
         <v>7</v>
@@ -6339,13 +6054,13 @@
         <v>7539</v>
       </c>
       <c r="O87" s="7" t="s">
-        <v>405</v>
+        <v>341</v>
       </c>
       <c r="P87" s="7" t="s">
-        <v>406</v>
+        <v>108</v>
       </c>
       <c r="Q87" s="7" t="s">
-        <v>407</v>
+        <v>183</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
@@ -6360,13 +6075,13 @@
         <v>42039</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>408</v>
+        <v>342</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>409</v>
+        <v>343</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>410</v>
+        <v>344</v>
       </c>
       <c r="H88" s="7">
         <v>10</v>
@@ -6375,13 +6090,13 @@
         <v>10904</v>
       </c>
       <c r="J88" s="7" t="s">
-        <v>411</v>
+        <v>345</v>
       </c>
       <c r="K88" s="7" t="s">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="L88" s="7" t="s">
-        <v>412</v>
+        <v>145</v>
       </c>
       <c r="M88" s="7">
         <v>50</v>
@@ -6390,13 +6105,13 @@
         <v>52943</v>
       </c>
       <c r="O88" s="7" t="s">
-        <v>413</v>
+        <v>346</v>
       </c>
       <c r="P88" s="7" t="s">
-        <v>53</v>
+        <v>347</v>
       </c>
       <c r="Q88" s="7" t="s">
-        <v>414</v>
+        <v>112</v>
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
@@ -6411,13 +6126,13 @@
         <v>140973</v>
       </c>
       <c r="E89" s="7" t="s">
-        <v>415</v>
+        <v>348</v>
       </c>
       <c r="F89" s="7" t="s">
-        <v>416</v>
+        <v>349</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="H89" s="7">
         <v>108</v>
@@ -6426,28 +6141,28 @@
         <v>115364</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>418</v>
+        <v>351</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>420</v>
+        <v>353</v>
       </c>
       <c r="M89" s="7">
         <v>243</v>
       </c>
       <c r="N89" s="7">
-        <v>256337</v>
+        <v>256336</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>421</v>
+        <v>354</v>
       </c>
       <c r="P89" s="7" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="Q89" s="7" t="s">
-        <v>423</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
@@ -6456,49 +6171,49 @@
         <v>0</v>
       </c>
       <c r="C90" s="7">
-        <v>33</v>
+        <v>556</v>
       </c>
       <c r="D90" s="7">
-        <v>34562</v>
+        <v>575823</v>
       </c>
       <c r="E90" s="7" t="s">
-        <v>424</v>
+        <v>357</v>
       </c>
       <c r="F90" s="7" t="s">
-        <v>425</v>
+        <v>358</v>
       </c>
       <c r="G90" s="7" t="s">
-        <v>426</v>
+        <v>359</v>
       </c>
       <c r="H90" s="7">
-        <v>32</v>
+        <v>631</v>
       </c>
       <c r="I90" s="7">
-        <v>34752</v>
+        <v>693746</v>
       </c>
       <c r="J90" s="7" t="s">
-        <v>427</v>
+        <v>126</v>
       </c>
       <c r="K90" s="7" t="s">
-        <v>428</v>
+        <v>360</v>
       </c>
       <c r="L90" s="7" t="s">
-        <v>429</v>
+        <v>361</v>
       </c>
       <c r="M90" s="7">
-        <v>65</v>
+        <v>1187</v>
       </c>
       <c r="N90" s="7">
-        <v>69315</v>
+        <v>1269568</v>
       </c>
       <c r="O90" s="7" t="s">
-        <v>430</v>
+        <v>362</v>
       </c>
       <c r="P90" s="7" t="s">
-        <v>431</v>
+        <v>363</v>
       </c>
       <c r="Q90" s="7" t="s">
-        <v>432</v>
+        <v>364</v>
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
@@ -6507,49 +6222,49 @@
         <v>3</v>
       </c>
       <c r="C91" s="7">
-        <v>223</v>
+        <v>746</v>
       </c>
       <c r="D91" s="7">
-        <v>233123</v>
+        <v>774383</v>
       </c>
       <c r="E91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H91" s="7">
-        <v>153</v>
+        <v>752</v>
       </c>
       <c r="I91" s="7">
-        <v>164057</v>
+        <v>823050</v>
       </c>
       <c r="J91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M91" s="7">
-        <v>376</v>
+        <v>1498</v>
       </c>
       <c r="N91" s="7">
-        <v>397180</v>
+        <v>1597433</v>
       </c>
       <c r="O91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q91" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
@@ -6572,7 +6287,7 @@
         <v>11</v>
       </c>
       <c r="G92" s="7" t="s">
-        <v>433</v>
+        <v>335</v>
       </c>
       <c r="H92" s="7">
         <v>1</v>
@@ -6581,13 +6296,13 @@
         <v>903</v>
       </c>
       <c r="J92" s="7" t="s">
-        <v>434</v>
+        <v>365</v>
       </c>
       <c r="K92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L92" s="7" t="s">
-        <v>338</v>
+        <v>142</v>
       </c>
       <c r="M92" s="7">
         <v>1</v>
@@ -6596,13 +6311,13 @@
         <v>903</v>
       </c>
       <c r="O92" s="7" t="s">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="P92" s="7" t="s">
         <v>10</v>
       </c>
       <c r="Q92" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
@@ -6617,13 +6332,13 @@
         <v>10112</v>
       </c>
       <c r="E93" s="7" t="s">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="F93" s="7" t="s">
-        <v>436</v>
+        <v>15</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>437</v>
+        <v>133</v>
       </c>
       <c r="H93" s="7">
         <v>4</v>
@@ -6632,13 +6347,13 @@
         <v>3929</v>
       </c>
       <c r="J93" s="7" t="s">
-        <v>438</v>
+        <v>367</v>
       </c>
       <c r="K93" s="7" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="L93" s="7" t="s">
-        <v>440</v>
+        <v>135</v>
       </c>
       <c r="M93" s="7">
         <v>13</v>
@@ -6647,13 +6362,13 @@
         <v>14042</v>
       </c>
       <c r="O93" s="7" t="s">
-        <v>441</v>
+        <v>89</v>
       </c>
       <c r="P93" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="Q93" s="7" t="s">
-        <v>442</v>
+        <v>263</v>
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
@@ -6668,13 +6383,13 @@
         <v>3103</v>
       </c>
       <c r="E94" s="7" t="s">
-        <v>443</v>
+        <v>95</v>
       </c>
       <c r="F94" s="7" t="s">
-        <v>444</v>
+        <v>365</v>
       </c>
       <c r="G94" s="7" t="s">
-        <v>248</v>
+        <v>302</v>
       </c>
       <c r="H94" s="7">
         <v>2</v>
@@ -6683,13 +6398,13 @@
         <v>1728</v>
       </c>
       <c r="J94" s="7" t="s">
-        <v>445</v>
+        <v>368</v>
       </c>
       <c r="K94" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>401</v>
+        <v>28</v>
       </c>
       <c r="M94" s="7">
         <v>5</v>
@@ -6698,13 +6413,13 @@
         <v>4831</v>
       </c>
       <c r="O94" s="7" t="s">
-        <v>446</v>
+        <v>369</v>
       </c>
       <c r="P94" s="7" t="s">
-        <v>447</v>
+        <v>370</v>
       </c>
       <c r="Q94" s="7" t="s">
-        <v>200</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,13 +6434,13 @@
         <v>13294</v>
       </c>
       <c r="E95" s="7" t="s">
-        <v>191</v>
+        <v>88</v>
       </c>
       <c r="F95" s="7" t="s">
-        <v>448</v>
+        <v>225</v>
       </c>
       <c r="G95" s="7" t="s">
-        <v>449</v>
+        <v>32</v>
       </c>
       <c r="H95" s="7">
         <v>3</v>
@@ -6734,13 +6449,13 @@
         <v>2638</v>
       </c>
       <c r="J95" s="7" t="s">
-        <v>450</v>
+        <v>299</v>
       </c>
       <c r="K95" s="7" t="s">
-        <v>434</v>
+        <v>10</v>
       </c>
       <c r="L95" s="7" t="s">
-        <v>451</v>
+        <v>89</v>
       </c>
       <c r="M95" s="7">
         <v>16</v>
@@ -6749,13 +6464,13 @@
         <v>15932</v>
       </c>
       <c r="O95" s="7" t="s">
-        <v>452</v>
+        <v>223</v>
       </c>
       <c r="P95" s="7" t="s">
-        <v>43</v>
+        <v>137</v>
       </c>
       <c r="Q95" s="7" t="s">
-        <v>294</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
@@ -6770,13 +6485,13 @@
         <v>11393</v>
       </c>
       <c r="E96" s="7" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="F96" s="7" t="s">
-        <v>438</v>
+        <v>41</v>
       </c>
       <c r="G96" s="7" t="s">
-        <v>453</v>
+        <v>371</v>
       </c>
       <c r="H96" s="7">
         <v>1</v>
@@ -6785,13 +6500,13 @@
         <v>960</v>
       </c>
       <c r="J96" s="7" t="s">
-        <v>454</v>
+        <v>365</v>
       </c>
       <c r="K96" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>148</v>
+        <v>333</v>
       </c>
       <c r="M96" s="7">
         <v>12</v>
@@ -6800,13 +6515,13 @@
         <v>12352</v>
       </c>
       <c r="O96" s="7" t="s">
-        <v>455</v>
+        <v>41</v>
       </c>
       <c r="P96" s="7" t="s">
-        <v>388</v>
+        <v>95</v>
       </c>
       <c r="Q96" s="7" t="s">
-        <v>456</v>
+        <v>20</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6536,13 @@
         <v>25822</v>
       </c>
       <c r="E97" s="7" t="s">
-        <v>457</v>
+        <v>298</v>
       </c>
       <c r="F97" s="7" t="s">
-        <v>458</v>
+        <v>269</v>
       </c>
       <c r="G97" s="7" t="s">
-        <v>459</v>
+        <v>372</v>
       </c>
       <c r="H97" s="7">
         <v>13</v>
@@ -6836,13 +6551,13 @@
         <v>12604</v>
       </c>
       <c r="J97" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="K97" s="7" t="s">
-        <v>460</v>
+        <v>89</v>
       </c>
       <c r="L97" s="7" t="s">
-        <v>461</v>
+        <v>371</v>
       </c>
       <c r="M97" s="7">
         <v>38</v>
@@ -6851,13 +6566,13 @@
         <v>38426</v>
       </c>
       <c r="O97" s="7" t="s">
-        <v>462</v>
+        <v>373</v>
       </c>
       <c r="P97" s="7" t="s">
-        <v>32</v>
+        <v>337</v>
       </c>
       <c r="Q97" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6587,13 @@
         <v>42458</v>
       </c>
       <c r="E98" s="7" t="s">
-        <v>463</v>
+        <v>56</v>
       </c>
       <c r="F98" s="7" t="s">
-        <v>464</v>
+        <v>374</v>
       </c>
       <c r="G98" s="7" t="s">
-        <v>465</v>
+        <v>307</v>
       </c>
       <c r="H98" s="7">
         <v>18</v>
@@ -6887,13 +6602,13 @@
         <v>18090</v>
       </c>
       <c r="J98" s="7" t="s">
-        <v>466</v>
+        <v>35</v>
       </c>
       <c r="K98" s="7" t="s">
-        <v>458</v>
+        <v>20</v>
       </c>
       <c r="L98" s="7" t="s">
-        <v>467</v>
+        <v>16</v>
       </c>
       <c r="M98" s="7">
         <v>59</v>
@@ -6902,13 +6617,13 @@
         <v>60548</v>
       </c>
       <c r="O98" s="7" t="s">
-        <v>468</v>
+        <v>222</v>
       </c>
       <c r="P98" s="7" t="s">
-        <v>469</v>
+        <v>101</v>
       </c>
       <c r="Q98" s="7" t="s">
-        <v>167</v>
+        <v>375</v>
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6638,13 @@
         <v>218375</v>
       </c>
       <c r="E99" s="7" t="s">
-        <v>470</v>
+        <v>376</v>
       </c>
       <c r="F99" s="7" t="s">
-        <v>471</v>
+        <v>377</v>
       </c>
       <c r="G99" s="7" t="s">
-        <v>472</v>
+        <v>378</v>
       </c>
       <c r="H99" s="7">
         <v>69</v>
@@ -6938,13 +6653,13 @@
         <v>71272</v>
       </c>
       <c r="J99" s="7" t="s">
-        <v>473</v>
+        <v>379</v>
       </c>
       <c r="K99" s="7" t="s">
-        <v>474</v>
+        <v>303</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>475</v>
+        <v>224</v>
       </c>
       <c r="M99" s="7">
         <v>275</v>
@@ -6953,13 +6668,13 @@
         <v>289647</v>
       </c>
       <c r="O99" s="7" t="s">
-        <v>476</v>
+        <v>380</v>
       </c>
       <c r="P99" s="7" t="s">
-        <v>477</v>
+        <v>381</v>
       </c>
       <c r="Q99" s="7" t="s">
-        <v>478</v>
+        <v>382</v>
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6689,13 @@
         <v>566613</v>
       </c>
       <c r="E100" s="7" t="s">
-        <v>479</v>
+        <v>383</v>
       </c>
       <c r="F100" s="7" t="s">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="G100" s="7" t="s">
-        <v>481</v>
+        <v>385</v>
       </c>
       <c r="H100" s="7">
         <v>420</v>
@@ -6989,13 +6704,13 @@
         <v>434288</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>482</v>
+        <v>386</v>
       </c>
       <c r="K100" s="7" t="s">
-        <v>483</v>
+        <v>387</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>484</v>
+        <v>388</v>
       </c>
       <c r="M100" s="7">
         <v>951</v>
@@ -7004,13 +6719,13 @@
         <v>1000901</v>
       </c>
       <c r="O100" s="7" t="s">
-        <v>485</v>
+        <v>389</v>
       </c>
       <c r="P100" s="7" t="s">
-        <v>486</v>
+        <v>390</v>
       </c>
       <c r="Q100" s="7" t="s">
-        <v>487</v>
+        <v>391</v>
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,49 +6734,49 @@
         <v>0</v>
       </c>
       <c r="C101" s="7">
-        <v>136</v>
+        <v>2356</v>
       </c>
       <c r="D101" s="7">
-        <v>149765</v>
+        <v>2463510</v>
       </c>
       <c r="E101" s="7" t="s">
-        <v>488</v>
+        <v>392</v>
       </c>
       <c r="F101" s="7" t="s">
-        <v>489</v>
+        <v>393</v>
       </c>
       <c r="G101" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="H101" s="7">
-        <v>134</v>
+        <v>2773</v>
       </c>
       <c r="I101" s="7">
-        <v>142086</v>
+        <v>2962721</v>
       </c>
       <c r="J101" s="7" t="s">
-        <v>490</v>
+        <v>395</v>
       </c>
       <c r="K101" s="7" t="s">
-        <v>491</v>
+        <v>396</v>
       </c>
       <c r="L101" s="7" t="s">
-        <v>492</v>
+        <v>397</v>
       </c>
       <c r="M101" s="7">
-        <v>270</v>
+        <v>5129</v>
       </c>
       <c r="N101" s="7">
-        <v>291851</v>
+        <v>5426231</v>
       </c>
       <c r="O101" s="7" t="s">
-        <v>493</v>
+        <v>398</v>
       </c>
       <c r="P101" s="7" t="s">
-        <v>494</v>
+        <v>399</v>
       </c>
       <c r="Q101" s="7" t="s">
-        <v>495</v>
+        <v>400</v>
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
@@ -7070,54 +6785,54 @@
         <v>3</v>
       </c>
       <c r="C102" s="7">
-        <v>975</v>
+        <v>3195</v>
       </c>
       <c r="D102" s="7">
-        <v>1040933</v>
+        <v>3354678</v>
       </c>
       <c r="E102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="H102" s="7">
-        <v>665</v>
+        <v>3304</v>
       </c>
       <c r="I102" s="7">
-        <v>688499</v>
+        <v>3509134</v>
       </c>
       <c r="J102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="L102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="M102" s="7">
-        <v>1640</v>
+        <v>6499</v>
       </c>
       <c r="N102" s="7">
-        <v>1729432</v>
+        <v>6863812</v>
       </c>
       <c r="O102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="P102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="Q102" s="7" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>496</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
